--- a/Data Files/UatData/AR-Basic_Store_Data-UAT.xlsx
+++ b/Data Files/UatData/AR-Basic_Store_Data-UAT.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FG\Socialhead\Katalon Studio\Project\Release\v8.3\alireviewbasic\Data Files\UatData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Admin\Documents\GitHub\hulamaster\Data Files\UatData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{EDBA902A-2EEE-4B07-886E-0B51A42B81A8}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7574F932-FB81-40D8-8DA6-317D121287B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="15720" windowWidth="29040" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="store_uat" r:id="rId1" sheetId="2"/>
-    <sheet name="store_create_daily" r:id="rId2" sheetId="10"/>
+    <sheet name="store_uat" sheetId="2" r:id="rId1"/>
+    <sheet name="store_create_daily" sheetId="10" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="65">
   <si>
     <t>partner_password</t>
   </si>
@@ -200,12 +200,6 @@
     <t>yes</t>
   </si>
   <si>
-    <t>img\current\AR-Basic-StoreTest-001</t>
-  </si>
-  <si>
-    <t>img\current\AR-Basic-StoreTest-001\diff</t>
-  </si>
-  <si>
     <t>default_language</t>
   </si>
   <si>
@@ -215,14 +209,19 @@
     <t>ar-uat</t>
   </si>
   <si>
-    <t>img\storefront\ar-uat</t>
+    <t>ar-uat-starter</t>
+  </si>
+  <si>
+    <t>ar-uat-essential</t>
+  </si>
+  <si>
+    <t>ar-uat-esstial-orders</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -671,103 +670,103 @@
     </border>
   </borders>
   <cellStyleXfs count="43">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="3" numFmtId="0"/>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="4" numFmtId="0"/>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="5" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="6" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="7" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="8" numFmtId="0"/>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="5" fontId="9" numFmtId="0"/>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="6" fontId="10" numFmtId="0"/>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="6" fontId="11" numFmtId="0"/>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="12" numFmtId="0"/>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="7" fontId="13" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="14" numFmtId="0"/>
-    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="8" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0"/>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="0" fontId="16" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="19" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="42"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle builtinId="30" customBuiltin="1" name="20% - Accent1" xfId="19"/>
-    <cellStyle builtinId="34" customBuiltin="1" name="20% - Accent2" xfId="23"/>
-    <cellStyle builtinId="38" customBuiltin="1" name="20% - Accent3" xfId="27"/>
-    <cellStyle builtinId="42" customBuiltin="1" name="20% - Accent4" xfId="31"/>
-    <cellStyle builtinId="46" customBuiltin="1" name="20% - Accent5" xfId="35"/>
-    <cellStyle builtinId="50" customBuiltin="1" name="20% - Accent6" xfId="39"/>
-    <cellStyle builtinId="31" customBuiltin="1" name="40% - Accent1" xfId="20"/>
-    <cellStyle builtinId="35" customBuiltin="1" name="40% - Accent2" xfId="24"/>
-    <cellStyle builtinId="39" customBuiltin="1" name="40% - Accent3" xfId="28"/>
-    <cellStyle builtinId="43" customBuiltin="1" name="40% - Accent4" xfId="32"/>
-    <cellStyle builtinId="47" customBuiltin="1" name="40% - Accent5" xfId="36"/>
-    <cellStyle builtinId="51" customBuiltin="1" name="40% - Accent6" xfId="40"/>
-    <cellStyle builtinId="32" customBuiltin="1" name="60% - Accent1" xfId="21"/>
-    <cellStyle builtinId="36" customBuiltin="1" name="60% - Accent2" xfId="25"/>
-    <cellStyle builtinId="40" customBuiltin="1" name="60% - Accent3" xfId="29"/>
-    <cellStyle builtinId="44" customBuiltin="1" name="60% - Accent4" xfId="33"/>
-    <cellStyle builtinId="48" customBuiltin="1" name="60% - Accent5" xfId="37"/>
-    <cellStyle builtinId="52" customBuiltin="1" name="60% - Accent6" xfId="41"/>
-    <cellStyle builtinId="29" customBuiltin="1" name="Accent1" xfId="18"/>
-    <cellStyle builtinId="33" customBuiltin="1" name="Accent2" xfId="22"/>
-    <cellStyle builtinId="37" customBuiltin="1" name="Accent3" xfId="26"/>
-    <cellStyle builtinId="41" customBuiltin="1" name="Accent4" xfId="30"/>
-    <cellStyle builtinId="45" customBuiltin="1" name="Accent5" xfId="34"/>
-    <cellStyle builtinId="49" customBuiltin="1" name="Accent6" xfId="38"/>
-    <cellStyle builtinId="27" customBuiltin="1" name="Bad" xfId="7"/>
-    <cellStyle builtinId="22" customBuiltin="1" name="Calculation" xfId="11"/>
-    <cellStyle builtinId="23" customBuiltin="1" name="Check Cell" xfId="13"/>
-    <cellStyle builtinId="53" customBuiltin="1" name="Explanatory Text" xfId="16"/>
-    <cellStyle builtinId="26" customBuiltin="1" name="Good" xfId="6"/>
-    <cellStyle builtinId="16" customBuiltin="1" name="Heading 1" xfId="2"/>
-    <cellStyle builtinId="17" customBuiltin="1" name="Heading 2" xfId="3"/>
-    <cellStyle builtinId="18" customBuiltin="1" name="Heading 3" xfId="4"/>
-    <cellStyle builtinId="19" customBuiltin="1" name="Heading 4" xfId="5"/>
-    <cellStyle builtinId="8" name="Hyperlink" xfId="42"/>
-    <cellStyle builtinId="20" customBuiltin="1" name="Input" xfId="9"/>
-    <cellStyle builtinId="24" customBuiltin="1" name="Linked Cell" xfId="12"/>
-    <cellStyle builtinId="28" customBuiltin="1" name="Neutral" xfId="8"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="10" customBuiltin="1" name="Note" xfId="15"/>
-    <cellStyle builtinId="21" customBuiltin="1" name="Output" xfId="10"/>
-    <cellStyle builtinId="15" customBuiltin="1" name="Title" xfId="1"/>
-    <cellStyle builtinId="25" customBuiltin="1" name="Total" xfId="17"/>
-    <cellStyle builtinId="11" customBuiltin="1" name="Warning Text" xfId="14"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -784,10 +783,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -822,7 +821,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -874,7 +873,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -985,21 +984,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1016,7 +1015,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1068,50 +1067,50 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AJ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AG15" sqref="AG15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="47.140625" collapsed="true"/>
-    <col min="6" max="7" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="30.85546875" collapsed="true"/>
-    <col min="9" max="10" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="100.42578125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="45.85546875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="38.7109375" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="47.7109375" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="58.28515625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="76.7109375" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="59.85546875" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="30.85546875" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="49.42578125" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="31.5703125" collapsed="true"/>
-    <col min="24" max="25" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="27" max="28" customWidth="true" width="28.42578125" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" width="26" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="47.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="100.42578125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="45.85546875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="38.7109375" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="47.7109375" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="58.28515625" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="76.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="59.85546875" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="30.85546875" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="49.42578125" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="31.5703125" customWidth="1" collapsed="1"/>
+    <col min="24" max="25" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="27" max="28" width="28.42578125" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="14.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="16.5" r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1215,13 +1214,13 @@
         <v>56</v>
       </c>
       <c r="AI1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AJ1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
-    <row customHeight="1" ht="14.25" r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1232,7 +1231,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1282,35 +1281,41 @@
       <c r="V2" t="s">
         <v>41</v>
       </c>
-      <c r="AD2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>64</v>
-      </c>
       <c r="AG2" t="s">
         <v>55</v>
       </c>
       <c r="AH2" s="3" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="R2" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="R2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AK2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView topLeftCell="V1" workbookViewId="0">
       <selection activeCell="V30" sqref="A3:XFD30"/>
@@ -1318,17 +1323,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" customWidth="true" width="42.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="26.5703125" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="53.7109375" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="48.85546875" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="69.0" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="68.85546875" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="48.42578125" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="5" max="5" width="42.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="33" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="26.5703125" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="53.7109375" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="26.140625" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="48.85546875" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="69" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="68.85546875" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="48.42578125" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="17.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -1435,10 +1440,10 @@
         <v>56</v>
       </c>
       <c r="AI1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AJ1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
@@ -1523,9 +1528,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="R2" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="R2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Data Files/UatData/AR-Basic_Store_Data-UAT.xlsx
+++ b/Data Files/UatData/AR-Basic_Store_Data-UAT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Admin\Documents\GitHub\hulamaster\Data Files\UatData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7574F932-FB81-40D8-8DA6-317D121287B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769F7206-D5E5-4086-91B4-0EA0E854D747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1078,7 +1078,7 @@
   <dimension ref="A1:AJ5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="W1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AG15" sqref="AG15"/>
+      <selection activeCell="AJ7" sqref="AJ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
